--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParkYC\OneDrive\personal project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC676771-0B6F-415C-B9EB-EA0795381891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826FB2CD-D303-4254-BF86-3EEB58D24B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>target</t>
   </si>
@@ -58,6 +58,12 @@
     <t>price</t>
   </si>
   <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>iscook</t>
+  </si>
+  <si>
     <t>발레노스 정식</t>
   </si>
   <si>
@@ -73,40 +79,70 @@
     <t>채소 볶음</t>
   </si>
   <si>
-    <t>시원한 맥주</t>
-  </si>
-  <si>
-    <t>24800</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>맥주</t>
   </si>
   <si>
-    <t>쫀득한 치즈 그라탱</t>
-  </si>
-  <si>
-    <t>바삭한 미트 크로켓</t>
-  </si>
-  <si>
-    <t>노릇한 생선 훈제 스테이크</t>
-  </si>
-  <si>
-    <t>아삭아삭한 채소 볶음</t>
+    <t>돼지 고기</t>
+  </si>
+  <si>
+    <t>밀가루</t>
+  </si>
+  <si>
+    <t>튀김용 오일</t>
+  </si>
+  <si>
+    <t>치즈</t>
+  </si>
+  <si>
+    <t>달걀</t>
+  </si>
+  <si>
+    <t>감자 반죽</t>
+  </si>
+  <si>
+    <t>파프리카</t>
+  </si>
+  <si>
+    <t>구운 소시지</t>
+  </si>
+  <si>
+    <t>레드 소스</t>
+  </si>
+  <si>
+    <t>양파</t>
+  </si>
+  <si>
+    <t>소금</t>
+  </si>
+  <si>
+    <t>후추</t>
+  </si>
+  <si>
+    <t>망둥어</t>
+  </si>
+  <si>
+    <t>올리브 오일</t>
+  </si>
+  <si>
+    <t>고추</t>
+  </si>
+  <si>
+    <t>밀</t>
+  </si>
+  <si>
+    <t>요리용 생수</t>
+  </si>
+  <si>
+    <t>발효제</t>
+  </si>
+  <si>
+    <t>설탕</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,15 +201,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -476,18 +508,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="12" max="12" width="9" style="3"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,122 +550,318 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>24800</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>45800</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>34300</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>32000</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>5500</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>7650</v>
+      </c>
+      <c r="M7">
+        <v>1156</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>3050</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <v>850</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10">
+        <v>2560</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>18</v>
+      <c r="N12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParkYC\OneDrive\personal project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826FB2CD-D303-4254-BF86-3EEB58D24B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9247716A-A8C5-44F3-B4E9-42A2935D62C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>target</t>
   </si>
@@ -64,6 +64,21 @@
     <t>iscook</t>
   </si>
   <si>
+    <t>채소 볶음</t>
+  </si>
+  <si>
+    <t>파프리카</t>
+  </si>
+  <si>
+    <t>올리브 오일</t>
+  </si>
+  <si>
+    <t>고추</t>
+  </si>
+  <si>
+    <t>소금</t>
+  </si>
+  <si>
     <t>발레노스 정식</t>
   </si>
   <si>
@@ -76,64 +91,34 @@
     <t>생선 훈제 스테이크</t>
   </si>
   <si>
-    <t>채소 볶음</t>
-  </si>
-  <si>
     <t>맥주</t>
   </si>
   <si>
+    <t>보리가루 반죽</t>
+  </si>
+  <si>
+    <t>구운 소시지</t>
+  </si>
+  <si>
+    <t>치즈</t>
+  </si>
+  <si>
+    <t>레드소스</t>
+  </si>
+  <si>
     <t>돼지 고기</t>
   </si>
   <si>
-    <t>밀가루</t>
-  </si>
-  <si>
-    <t>튀김용 오일</t>
-  </si>
-  <si>
-    <t>치즈</t>
-  </si>
-  <si>
-    <t>달걀</t>
-  </si>
-  <si>
-    <t>감자 반죽</t>
-  </si>
-  <si>
-    <t>파프리카</t>
-  </si>
-  <si>
-    <t>구운 소시지</t>
-  </si>
-  <si>
-    <t>레드 소스</t>
-  </si>
-  <si>
     <t>양파</t>
   </si>
   <si>
-    <t>소금</t>
-  </si>
-  <si>
     <t>후추</t>
   </si>
   <si>
-    <t>망둥어</t>
-  </si>
-  <si>
-    <t>올리브 오일</t>
-  </si>
-  <si>
-    <t>고추</t>
-  </si>
-  <si>
-    <t>밀</t>
+    <t>베이스 소스</t>
   </si>
   <si>
     <t>요리용 생수</t>
-  </si>
-  <si>
-    <t>발효제</t>
   </si>
   <si>
     <t>설탕</t>
@@ -508,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,34 +553,31 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>24800</v>
+        <v>7650</v>
+      </c>
+      <c r="M2">
+        <v>3026</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -603,183 +585,96 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L3">
-        <v>45800</v>
+        <v>860</v>
+      </c>
+      <c r="M3">
+        <v>860</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="L4">
-        <v>34300</v>
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L5">
-        <v>32000</v>
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>5500</v>
+        <v>2360</v>
+      </c>
+      <c r="M6">
+        <v>2360</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7">
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>7650</v>
-      </c>
-      <c r="M7">
-        <v>1156</v>
+        <v>23000</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -787,34 +682,40 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>3050</v>
+        <v>29800</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -822,21 +723,51 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>850</v>
+        <v>31300</v>
+      </c>
+      <c r="M9">
+        <v>22596</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L10">
-        <v>2560</v>
+        <v>9800</v>
+      </c>
+      <c r="M10">
+        <v>9800</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,10 +775,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>4190</v>
+      </c>
+      <c r="M11">
+        <v>4190</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -858,9 +792,106 @@
         <v>30</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>2380</v>
+      </c>
+      <c r="M12">
+        <v>2380</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <v>2420</v>
+      </c>
+      <c r="M14">
+        <v>2420</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>5100</v>
+      </c>
+      <c r="M15">
+        <v>3300</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
     </row>

--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,9 @@
       <c r="L8" t="n">
         <v>29800</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>25598</v>
+      </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
@@ -1049,6 +1051,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>치즈</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>11200</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11200</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,54 +716,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>치즈 그라탱</t>
+          <t>구운 소시지</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>보리가루 반죽</t>
+          <t>돼지 고기</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>파프리카</t>
+          <t>양파</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>구운 소시지</t>
+          <t>소금</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>치즈</t>
+          <t>후추</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>레드소스</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>29800</v>
+        <v>31300</v>
       </c>
       <c r="M8" t="n">
-        <v>25598</v>
+        <v>22596</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -772,57 +766,33 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>구운 소시지</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>돼지 고기</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>양파</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>소금</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>후추</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>31300</v>
+        <v>9800</v>
       </c>
       <c r="M9" t="n">
-        <v>22596</v>
+        <v>9800</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>돼지 고기</t>
+          <t>양파</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -836,10 +806,10 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>9800</v>
+        <v>4190</v>
       </c>
       <c r="M10" t="n">
-        <v>9800</v>
+        <v>4190</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -848,7 +818,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>양파</t>
+          <t>후추</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -862,10 +832,10 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4190</v>
+        <v>2380</v>
       </c>
       <c r="M11" t="n">
-        <v>4190</v>
+        <v>2380</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -874,7 +844,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>후추</t>
+          <t>베이스 소스</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -888,10 +858,10 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>2380</v>
+        <v>20</v>
       </c>
       <c r="M12" t="n">
-        <v>2380</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -900,7 +870,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>베이스 소스</t>
+          <t>보리가루 반죽</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -914,10 +884,10 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>20</v>
+        <v>2420</v>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>2420</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -926,83 +896,83 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>보리가루 반죽</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>레드소스</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>베이스 소스</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>돼지 고기</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>요리용 생수</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>설탕</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>2420</v>
+        <v>5100</v>
       </c>
       <c r="M14" t="n">
-        <v>2420</v>
+        <v>3300</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>레드소스</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>베이스 소스</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>돼지 고기</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>요리용 생수</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>설탕</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5100</v>
+        <v>20</v>
       </c>
       <c r="M15" t="n">
-        <v>3300</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>요리용 생수</t>
+          <t>설탕</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1028,7 +998,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>설탕</t>
+          <t>치즈</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1042,38 +1012,12 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>20</v>
+        <v>11200</v>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>11200</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>치즈</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>11200</v>
-      </c>
-      <c r="M18" t="n">
-        <v>11200</v>
-      </c>
-      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
